--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Keycapture_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -2974,7 +2974,9 @@
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E27" s="4" t="s">
         <v>79</v>
       </c>
@@ -2999,7 +3001,9 @@
         <v>1</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E28" s="4" t="s">
         <v>82</v>
       </c>
@@ -3024,7 +3028,9 @@
         <v>1</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E29" s="6" t="s">
         <v>85</v>
       </c>
@@ -3049,7 +3055,9 @@
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E30" s="6" t="s">
         <v>88</v>
       </c>
@@ -3074,7 +3082,9 @@
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E31" s="6" t="s">
         <v>91</v>
       </c>
@@ -3099,7 +3109,9 @@
         <v>1</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E32" s="6" t="s">
         <v>94</v>
       </c>
@@ -3124,7 +3136,9 @@
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E33" s="6" t="s">
         <v>97</v>
       </c>
@@ -3149,7 +3163,9 @@
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E34" s="6" t="s">
         <v>100</v>
       </c>
@@ -3174,7 +3190,9 @@
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E35" s="6" t="s">
         <v>103</v>
       </c>
@@ -3199,7 +3217,9 @@
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E36" s="6" t="s">
         <v>106</v>
       </c>
@@ -3224,7 +3244,9 @@
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E37" s="6" t="s">
         <v>109</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Keycapture_JS.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -63,135 +63,10 @@
     <t>call captureTrigger with callback as anonymous function</t>
   </si>
   <si>
-    <t>call remapKey with VolumeDown and VolumeUp</t>
-  </si>
-  <si>
     <t>Change Start page</t>
   </si>
   <si>
-    <t>call captureKey with keyValue for P1/Volume down with dispatch true and function Callback</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_011_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumedown);
-validate4;</t>
-  </si>
-  <si>
-    <t>call captureKey with keyValue for P2/Volume Up with dispatch false and function Callback</t>
-  </si>
-  <si>
     <t>call captureKey twice, dispatch false with KeyValue ALL first then true with particular key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-015
-};
-validate4
-{
-validate_keyCaptured=24
-};
-validate5
-{
-validate_keyCaptured=25
-};
-validate6
-{
-validate_keyCaptured=104
-};
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_015_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;
-sendKeyEvents(PTTKey);
-validate6;</t>
-  </si>
-  <si>
-    <t>call captureKey twice, dispatch true  with  particular key first then false with KeyValue ALL</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_016_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;
-sendKeyEvents(PTTKey);
-validate6;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-016
-};
-validate4
-{
-validate_keyCaptured=24
-};
-validate5
-{
-validate_keyCaptured=25
-};
-validate6
-{
-validate_keyCaptured=104
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call captureKey twice with  KeyValue ALL first and KeyValue 1 with different dispatch value </t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_017_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;
-sendKeyEvents(PTTKey);
-validate6;</t>
   </si>
   <si>
     <t>validate1
@@ -222,94 +97,7 @@
     <t>call captureKey twice , one with callback and other without callback for KeyValue ALL</t>
   </si>
   <si>
-    <t>call captureKey to check the KeyValues of all hardware key</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_021_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;
-sendKeyEvents(PTTKey);
-validate6;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-021
-};
-validate4
-{
-validate_keyCaptured=24
-};
-validate5
-{
-validate_keyCaptured=25
-};
-validate6
-{
-validate_keyCaptured=104
-};
-</t>
-  </si>
-  <si>
     <t>call captureKey with no callback and dispatch false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-026
-};
-validate4
-{
-validate_keyCaptured=null
-};
-validate5
-{
-validate_keyCaptured=null
-};
-validate6
-{
-validate_keyCaptured=null
-};
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_026_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;
-sendKeyEvents(PTTKey);
-validate6;</t>
   </si>
   <si>
     <t>call captureKey with no callback after setting P1/VolumeDown</t>
@@ -429,263 +217,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_031_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;  
-</t>
-  </si>
-  <si>
-    <t>call remapKey with VolumeDown and Null</t>
-  </si>
-  <si>
-    <t>call capture key after remapKey</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-031
-};
-validate4
-{
-validate_keyCaptured=null
-};
-validate5
-{
-validate_keyCaptured=null
-};</t>
-  </si>
-  <si>
     <t>call capture key after remapKey and callback to fire with both key</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_032_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_033_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;  
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-033
-};
-validate4
-{
-validate_keyCaptured=null
-};
-validate5
-{
-validate_keyCaptured=null
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_034_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;  
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-034
-};
-validate4
-{
-validate_keyCaptured=24
-};
-validate5
-{
-validate_keyCaptured=24
-};</t>
-  </si>
-  <si>
     <t>call remap key after captureKey and callback to fire with both key</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_035_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;  
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-035
-};
-validate4
-{
-validate_keyCaptured=24
-};
-validate5
-{
-validate_keyCaptured=24
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_036_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumeup);
-validate4;
-sendKeyEvents(Volumedown);
-validate5;  
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-036
-};
-validate4
-{
-validate_keyCaptured=null
-};
-validate5
-{
-validate_keyCaptured=25
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-011
-};
-validate4
-{
-validate_keyCaptured=25
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-012
-};
-validate4
-{
-validate_keyCaptured=null
-};
-validate5
-{
-validate_keyCaptured=24
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_test_link);
-validate2;
-SelectTestToRun(VT289_012_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Volumedown);
-validate4;
-sendKeyEvents(Volumeup);
-validate5;</t>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+ChangeConfigxml(Configuration/DeviceKeys,FunctionKeysCapturable,&lt;FunctionKeysCapturable value="1"/&gt;);
+PushConfigxml;</t>
   </si>
   <si>
     <t>wait(5);
@@ -711,54 +255,6 @@
 sendKeyEvents(Triggerkey);
 validate4;
 </t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-032
-};
-validate4
-{
-validate_keyCaptured=null
-};
-validate5
-{
-validate_keyCaptured=null
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=KeyCapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-017
-};
-validate4
-{
-validate_keyCaptured=24
-};
-validate5
-{
-validate_keyCaptured=25
-};
-validate6
-{
-validate_keyCaptured=104
-};</t>
   </si>
   <si>
     <t xml:space="preserve">wait(5);
@@ -839,16 +335,7 @@
 </t>
   </si>
   <si>
-    <t>call captureKey with dispatch false, keyValue for Volumedown and press volumeup</t>
-  </si>
-  <si>
     <t>call captureKey with dispatch True, keyValue ALL and callback (Numeric, Arrow, Volume &amp; PTT Keys)</t>
-  </si>
-  <si>
-    <t>call captureKey with dispatch True, keyValue ALL and callback (Alphabets)</t>
-  </si>
-  <si>
-    <t>call captureKey with dispatch True, keyValue ALL and callback (Function &amp; Special Keys)</t>
   </si>
   <si>
     <t>call captureKey Value for Menu and callback as Anonymous function</t>
@@ -1157,139 +644,35 @@
     <t>Call Capture Key after setting homeKey value</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_hk_test_link);
-validate2;
-SelectTestToRun(VT289_044_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(Enter);
-wait(3);
-validate4;
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-044
-};
-validate4
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate5
-{
-validate_keyCaptured=66
-};</t>
-  </si>
-  <si>
     <t>Call RemapKey after setting homeKey value</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_hk_test_link);
-validate2;
-SelectTestToRun(VT289_042_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-enterTextboxArea(Keytextbox1_name);
-sendKeyEvents(3);
-wait(3);
-validate4;
-enterTextboxArea(Keytextbox2_name);
-sendKeyEvents(4);
-wait(3);
-validate5;
-validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-042
-};
-validate4
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate5
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate6
-{
-validate_RemapData=4
-};</t>
-  </si>
-  <si>
-    <t>Set homeKey value after callling RemapKey</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(keycapture_hk_test_link);
-validate2;
-SelectTestToRun(VT289_043_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-sendKeyEvents(6);
-wait(3);
-validate4;
-link_Click(keycapture_hk_test_link);
-validate5;
-sendKeyEvents(7);
-wait(3);
-validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-043
-};
-validate4
-{
-validate_PageTitle=Manual specs
-};
-validate5
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate6
-{
-validate_PageTitle=Manual specs
-};</t>
+    <t>call captureKey with dispatch true, keyValue for 1 and function callback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call captureKey with keyValue for 1 with dispatch false and function callback </t>
+  </si>
+  <si>
+    <t>call captureKey with dispatch True, keyValue ALL and callback for alphabets and special keys</t>
+  </si>
+  <si>
+    <t>call captureKey with dispatch True, keyValue ALL and callback for numeric keys</t>
+  </si>
+  <si>
+    <t>call captureKey twice, dispatch true with particular key first then false with keyValue ALL</t>
+  </si>
+  <si>
+    <t>call captureKey twice, dispatch true with keyvalue ALL firts then false with particular key</t>
+  </si>
+  <si>
+    <t>call captureKey to check the keyvalues of all hardware key(Alphabets)</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
 link_Click(keycapture_test_link);
 validate2;
-SelectTestToRun(VT289_014_string);
+SelectTestToRun(VT289_022_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 sendKeyEvents(a);
@@ -1356,7 +739,7 @@
 };
 validate3
 {
-validate_OldText_Exists=VT289-014
+validate_OldText_Exists=VT289-022
 };
 validate4
 {
@@ -1468,7 +851,7 @@
 validate1;
 link_Click(keycapture_test_link);
 validate2;
-SelectTestToRun(VT289_014_string);
+SelectTestToRun(VT289_021_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 sendKeyEvents(Volumeup);
@@ -1517,7 +900,7 @@
 };
 validate3
 {
-validate_OldText_Exists=VT289-014
+validate_OldText_Exists=VT289-021
 };
 validate4
 {
@@ -1587,6 +970,58 @@
 {
 validate_keyCaptured=22
 };</t>
+  </si>
+  <si>
+    <t>call captureKey with dispatch True, keyValue ALL and callback (Function &amp; Special Keys)(VT023,024 &amp; 025)</t>
+  </si>
+  <si>
+    <t>call remapKey with a and null)</t>
+  </si>
+  <si>
+    <t>call capturekey after remapKey</t>
+  </si>
+  <si>
+    <t>call captureKey with dispatch false, keyValue for 2 and press numeric key 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call remapKey after setting homeKeyValue and navigate to homepage </t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_hk_test_link);
+validate2;
+SelectTestToRun(VT289_042_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(3);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_042_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(4);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_012_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate4;</t>
   </si>
   <si>
     <t>wait(5);
@@ -1594,6 +1029,1351 @@
 link_Click(keycapture_test_link);
 validate2;
 SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(2);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(3);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(4);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(5);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(6);
+validate8;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(7);
+validate9;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(8);
+validatea;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(9);
+validateb;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(a);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(p);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(t);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(x);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(z);
+validate8;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Plus);
+validate9;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Divide);
+validatea;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Star);
+validateb;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(3);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(2);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(9);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(x);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(z);
+validate8;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Plus);
+validate9;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Divide);
+validatea;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Star);
+validateb;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(3);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(d);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(9);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(x);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(z);
+validate8;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Plus);
+validate9;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Divide);
+validatea;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Star);
+validateb;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Plus);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(3);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(9);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(x);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(z);
+validate8;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Minus);
+validate9;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Divide);
+validatea;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Star);
+validateb;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_026_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(0);
+validate4;
+sendKeyEvents(5);
+validate5;
+sendKeyEvents(l);
+validate6;
+sendKeyEvents(q);
+validate7;
+sendKeyEvents(Minus);
+validate8;
+sendKeyEvents(Equals);
+validate9;
+sendKeyEvents(DecimalPoint);
+validatea;
+sendKeyEvents(u);
+validateb;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_032_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(a);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_032_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_033_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(a);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_033_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(b);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_034_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_034_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(a);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_035_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_035_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_036_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(2);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_036_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(4);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-043
+};</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_011_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate4;</t>
+  </si>
+  <si>
+    <t>call remapKey with Enter and 1)</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_031_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_031_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(ENTER);
+validate4;</t>
+  </si>
+  <si>
+    <t>call remapKey with F1 and 9)</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_040_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(9);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_040_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(F1);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-011
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,1
+validate_keyCaptured=8
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-011
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=8
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-014
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,2
+validate_keyCaptured=9
+};
+validate5
+{
+validate_textBoxData=keytxtInput_id,3
+validate_keyCaptured=10
+};
+validate6
+{
+validate_textBoxData=keytxtInput_id,4
+validate_keyCaptured=11
+};
+validate7
+{
+validate_textBoxData=keytxtInput_id,5
+validate_keyCaptured=12
+};
+validate8
+{
+validate_textBoxData=keytxtInput_id,6
+validate_keyCaptured=13
+};
+validate9
+{
+validate_textBoxData=keytxtInput_id,7
+validate_keyCaptured=14
+};
+validatea
+{
+validate_textBoxData=keytxtInput_id,8
+validate_keyCaptured=15
+};
+validateb
+{
+validate_textBoxData=keytxtInput_id,9
+validate_keyCaptured=16
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-014
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,a
+validate_keyCaptured=29
+};
+validate5
+{
+validate_textBoxData=keytxtInput_id,p
+validate_keyCaptured=44
+};
+validate6
+{
+validate_textBoxData=keytxtInput_id,t
+validate_keyCaptured=48
+};
+validate7
+{
+validate_textBoxData=keytxtInput_id,x
+validate_keyCaptured=52
+};
+validate8
+{
+validate_textBoxData=keytxtInput_id,z
+validate_keyCaptured=54
+};
+validate9
+{
+validate_textBoxData=keytxtInput_id,+
+validate_keyCaptured=157
+};
+validatea
+{
+validate_textBoxData=keytxtInput_id,/
+validate_keyCaptured=154
+};
+validateb
+{
+validate_textBoxData=keytxtInput_id,*
+validate_keyCaptured=17
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-015
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,3
+validate_keyCaptured=10
+};
+validate5
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=9
+};
+validate6
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=16
+};
+validate7
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=52
+};
+validate8
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=54
+};
+validate9
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=157
+};
+validatea
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=154
+};
+validateb
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=17
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-026
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=null
+};
+validate5
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=null
+};
+validate6
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=null
+};
+validate7
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=null
+};
+validate8
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=null
+};
+validate9
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=null
+};
+validatea
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=null
+};
+validateb
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=null
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-031
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,1
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-040
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,9
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-032
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,a
+};
+validate5
+{
+validate_textBoxData=keytxtInput_id,1
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-033
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,b
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-035
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,2
+validate_keyCaptured=9
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-016
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=10
+};
+validate5
+{
+validate_textBoxData=keytxtInput_id,d
+validate_keyCaptured=32
+};
+validate6
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=16
+};
+validate7
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=52
+};
+validate8
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=54
+};
+validate9
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=157
+};
+validatea
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=154
+};
+validateb
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=17
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-017
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=157
+};
+validate5
+{
+validate_textBoxData=keytxtInput_id,3
+validate_keyCaptured=10
+};
+validate6
+{
+validate_textBoxData=keytxtInput_id,9
+validate_keyCaptured=16
+};
+validate7
+{
+validate_textBoxData=keytxtInput_id,x
+validate_keyCaptured=52
+};
+validate8
+{
+validate_textBoxData=keytxtInput_id,z
+validate_keyCaptured=54
+};
+validate9
+{
+validate_textBoxData=keytxtInput_id,-
+validate_keyCaptured=156
+};
+validatea
+{
+validate_textBoxData=keytxtInput_id,/
+validate_keyCaptured=154
+};
+validateb
+{
+validate_textBoxData=keytxtInput_id,*
+validate_keyCaptured=17
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-034
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,a
+validate_keyCaptured=29
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-036
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=9
+};
+validate5
+{
+validate_textBoxData=keytxtInput_id,4
+validate_keyCaptured=null
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-044
+};
+validate4
+{
+validate_keyCaptured=66
+};</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_hk_test_link);
+validate2;
+SelectTestToRun(VT289_044_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+sendKeyEvents(Enter);
+wait(3);
+validate2;
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-042
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,4
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=KeyCapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-023
+};
+validate4
+{
+validate_keyCaptured=131
+};
+validate5
+{
+validate_keyCaptured=132
+};
+validate6
+{
+validate_keyCaptured=133
+};
+validate7
+{
+validate_keyCaptured=134
+};
+validate8
+{
+validate_keyCaptured=135
+};
+validate9
+{
+validate_keyCaptured=136
+};
+validatea
+{
+validate_keyCaptured=137
+};
+validateb
+{
+validate_keyCaptured=138
+};
+validatec
+{
+validate_keyCaptured=139
+};
+validated
+{
+validate_keyCaptured=140
+};
+validatee
+{
+validate_keyCaptured=141
+};
+validatef
+{
+validate_keyCaptured=142
+};
+validateg
+{
+validate_keyCaptured=113
+};
+validateh
+{
+validate_keyCaptured=57
+};
+validatei
+{
+validate_keyCaptured=66
+};
+validatej
+{
+validate_keyCaptured=67
+};
+validatek
+{
+validate_keyCaptured=61
+};
+validatel
+{
+validate_keyCaptured=62
+};
+validatem
+{
+validate_keyCaptured=59
+};
+validaten
+{
+validate_keyCaptured=56
+};
+validateo
+{
+validate_keyCaptured=17
+};
+validatep
+{
+validate_keyCaptured=157
+};
+validateq
+{
+validate_keyCaptured=156
+};
+validater
+{
+validate_keyCaptured=155
+};
+validates
+{
+validate_keyCaptured=154
+};
+validatet
+{
+validate_keyCaptured=161
+};</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_023_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 sendKeyEvents(F1);
@@ -1649,105 +2429,374 @@
 sendKeyEvents(Equals);
 validatet;
 sendKeyEvents(ESC);
-validateu;</t>
-  </si>
-  <si>
-    <t>wait(3);
+validate1;</t>
+  </si>
+  <si>
+    <t>KeyValue:All(Alphabets)- JavaScript function with iswindows key=1</t>
+  </si>
+  <si>
+    <t>KeyValue:All(Numeric, Arrow, Volume &amp; PTT Keys)JavaScript function with iswindows key=1</t>
+  </si>
+  <si>
+    <t>KeyValue:All(Function &amp; Special Keys) with iswindows key=1</t>
+  </si>
+  <si>
+    <t>Set HomeKey Value to Enter with windows key=1</t>
+  </si>
+  <si>
+    <t>KeyValue:8(1 key) Dispatch:true with windows key=1</t>
+  </si>
+  <si>
+    <t>KeyValue:8(1 key) Dispatch:false with windows key=1</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_hk_test_link);
+validate2;
+SelectTestToRun(VT289_043_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+sendKeyEvents(6);
+wait(3);
+validate1;
+link_Click(keycapture_hk_test_link);
+validate2;
+sendKeyEvents(7);
+wait(3);
+validate1;
+wait(2);
 PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
-ChangeConfigxml(Configuration/DeviceKeys,FunctionKeysCapturable,&lt;FunctionKeysCapturable value="1"/&gt;);
+ChangeConfigxml(Configuration/Applications/Application,isWindowsKey,&lt;isWindowsKey value="1"/&gt;);
 PushConfigxml;</t>
   </si>
   <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_054_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_055_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_hk_test_link);
+validate2;
+SelectTestToRun(VT289_057_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+sendKeyEvents(Enter);
+wait(3);
+validate1;</t>
+  </si>
+  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
 };
 validate2
 {
-validate_PageTitle=KeyCapture JS Test
+validate_PageTitle=Keycapture JS Test
 };
 validate3
 {
-validate_OldText_Exists=VT289-014
+validate_OldText_Exists=VT289-022
 };
 validate4
 {
-validate_keyCaptured=131
+validate_keyCaptured=65
 };
 validate5
 {
-validate_keyCaptured=132
+validate_keyCaptured=66
 };
 validate6
 {
-validate_keyCaptured=133
+validate_keyCaptured=67
 };
 validate7
 {
-validate_keyCaptured=134
+validate_keyCaptured=68
 };
 validate8
 {
-validate_keyCaptured=135
+validate_keyCaptured=69
 };
 validate9
 {
-validate_keyCaptured=136
+validate_keyCaptured=70
 };
 validatea
 {
-validate_keyCaptured=137
+validate_keyCaptured=71
 };
 validateb
 {
-validate_keyCaptured=138
+validate_keyCaptured=72
 };
 validatec
 {
-validate_keyCaptured=139
+validate_keyCaptured=73
 };
 validated
 {
-validate_keyCaptured=140
+validate_keyCaptured=74
 };
 validatee
 {
-validate_keyCaptured=141
+validate_keyCaptured=75
 };
 validatef
 {
-validate_keyCaptured=142
+validate_keyCaptured=76
 };
 validateg
 {
+validate_keyCaptured=77
+};
+validateh
+{
+validate_keyCaptured=78
+};
+validatei
+{
+validate_keyCaptured=79
+};
+validatej
+{
+validate_keyCaptured=80
+};
+validatek
+{
+validate_keyCaptured=81
+};
+validatel
+{
+validate_keyCaptured=82
+};
+validatem
+{
+validate_keyCaptured=83
+};
+validaten
+{
+validate_keyCaptured=84
+};
+validateo
+{
+validate_keyCaptured=85
+};
+validatep
+{
+validate_keyCaptured=86
+};
+validateq
+{
+validate_keyCaptured=87
+};
+validater
+{
+validate_keyCaptured=88
+};
+validates
+{
+validate_keyCaptured=89
+};
+validatet
+{
+validate_keyCaptured=90
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-021
+};
+validate4
+{
+validate_keyCaptured=175
+};
+validate5
+{
+validate_keyCaptured=174
+};
+validate6
+{
+validate_keyCaptured=104
+};
+validate7
+{
+validate_keyCaptured=48
+};
+validate8
+{
+validate_keyCaptured=49
+};
+validate9
+{
+validate_keyCaptured=50
+};
+validatea
+{
+validate_keyCaptured=51
+};
+validateb
+{
+validate_keyCaptured=52
+};
+validatec
+{
+validate_keyCaptured=53
+};
+validated
+{
+validate_keyCaptured=54
+};
+validatee
+{
+validate_keyCaptured=55
+};
+validatef
+{
+validate_keyCaptured=56
+};
+validateg
+{
+validate_keyCaptured=57
+};
+validateh
+{
+validate_keyCaptured=38
+};
+validatei
+{
+validate_keyCaptured=40
+};
+validatej
+{
+validate_keyCaptured=37
+};
+validatek
+{
+validate_keyCaptured=39
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-023
+};
+validate4
+{
+validate_keyCaptured=112
+};
+validate5
+{
 validate_keyCaptured=113
 };
+validate6
+{
+validate_keyCaptured=114
+};
+validate7
+{
+validate_keyCaptured=115
+};
+validate8
+{
+validate_keyCaptured=116
+};
+validate9
+{
+validate_keyCaptured=117
+};
+validatea
+{
+validate_keyCaptured=118
+};
+validateb
+{
+validate_keyCaptured=119
+};
+validatec
+{
+validate_keyCaptured=120
+};
+validated
+{
+validate_keyCaptured=121
+};
+validatee
+{
+validate_keyCaptured=122
+};
+validatef
+{
+validate_keyCaptured=123
+};
+validateg
+{
+validate_keyCaptured=17
+};
 validateh
 {
-validate_keyCaptured=57
+validate_keyCaptured=18
 };
 validatei
 {
-validate_keyCaptured=66
+validate_keyCaptured=13
 };
 validatej
 {
-validate_keyCaptured=67
+validate_keyCaptured=46
 };
 validatek
 {
-validate_keyCaptured=61
+validate_keyCaptured=9
 };
 validatel
 {
-validate_keyCaptured=62
+validate_keyCaptured=32
 };
 validatem
 {
-validate_keyCaptured=59
+validate_keyCaptured=16
 };
 validaten
 {
@@ -1759,19 +2808,19 @@
 };
 validatep
 {
-validate_keyCaptured=157
+validate_keyCaptured=109
 };
 validateq
 {
-validate_keyCaptured=156
+validate_keyCaptured=108
 };
 validater
 {
-validate_keyCaptured=155
+validate_keyCaptured=107
 };
 validates
 {
-validate_keyCaptured=154
+validate_keyCaptured=106
 };
 validatet
 {
@@ -1779,8 +2828,107 @@
 };
 validateu
 {
-validate_PageTitle=Manual specs
+validate_keyCaptured=27
 };</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-057
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-054
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,1
+validate_keyCaptured=49
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-055
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=49
+};</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(keycapture_test_link);
+validate2;
+SelectTestToRun(VT289_056_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(1);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(ReloadButton_xpath);
+wait(10);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT289_056_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+textBoxClick(keytxtInput_id);
+wait(2);
+sendKeyEvents(Enter);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-056
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,1
+};</t>
+  </si>
+  <si>
+    <t>Keyvalue 8
+Remap:9
+(Remap Enter to 1) with windows key=1</t>
   </si>
 </sst>
 </file>
@@ -2243,9 +3391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2253,7 +3403,7 @@
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -2291,7 +3441,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="153.75" thickBot="1">
+    <row r="2" spans="1:11" ht="294" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2305,20 +3455,20 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="180.75" thickBot="1">
+    <row r="3" spans="1:11" ht="192" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2330,22 +3480,22 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="225.75" thickBot="1">
+    <row r="4" spans="1:11" ht="192" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2357,16 +3507,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2384,16 +3534,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2410,17 +3560,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>74</v>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2437,17 +3587,17 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>73</v>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -2464,23 +3614,23 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>75</v>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="282" thickBot="1">
+    <row r="9" spans="1:11" ht="409.6" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2492,22 +3642,22 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="282" thickBot="1">
+    <row r="10" spans="1:11" ht="409.6" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2519,22 +3669,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="270.75" thickBot="1">
+    <row r="11" spans="1:11" ht="225.75" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2545,17 +3695,17 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2573,22 +3723,22 @@
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="225.75" thickBot="1">
+    <row r="13" spans="1:11" ht="282" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2600,22 +3750,22 @@
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="282" thickBot="1">
+    <row r="14" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2627,22 +3777,22 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="282" thickBot="1">
+    <row r="15" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2654,22 +3804,22 @@
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="282" thickBot="1">
+    <row r="16" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2681,22 +3831,22 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="180.75" thickBot="1">
+    <row r="17" spans="1:11" ht="409.6" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2708,16 +3858,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2735,16 +3885,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2762,16 +3912,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2789,22 +3939,22 @@
         <v>10</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="225.75" thickBot="1">
+    <row r="21" spans="1:11" ht="180.75" thickBot="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2816,22 +3966,22 @@
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="225.75" thickBot="1">
+    <row r="22" spans="1:11" ht="248.25" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2842,23 +3992,23 @@
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>47</v>
+      <c r="E22" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="225.75" thickBot="1">
+    <row r="23" spans="1:11" ht="248.25" thickBot="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2869,23 +4019,23 @@
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>48</v>
+      <c r="E23" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="225.75" thickBot="1">
+    <row r="24" spans="1:11" ht="248.25" thickBot="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2896,23 +4046,23 @@
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>50</v>
+      <c r="E24" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="225.75" thickBot="1">
+    <row r="25" spans="1:11" ht="248.25" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2923,23 +4073,23 @@
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>56</v>
+      <c r="E25" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="225.75" thickBot="1">
+    <row r="26" spans="1:11" ht="248.25" thickBot="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2951,22 +4101,22 @@
         <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="180.75" thickBot="1">
+    <row r="27" spans="1:11" ht="248.25" thickBot="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2977,23 +4127,23 @@
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>79</v>
+      <c r="E27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="180.75" thickBot="1">
+    <row r="28" spans="1:11" ht="248.25" thickBot="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3004,17 +4154,17 @@
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>82</v>
+      <c r="E28" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3031,17 +4181,17 @@
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>85</v>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3058,17 +4208,17 @@
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>88</v>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3086,16 +4236,16 @@
         <v>10</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -3113,16 +4263,16 @@
         <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -3140,22 +4290,22 @@
         <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="225.75" thickBot="1">
+    <row r="34" spans="1:11" ht="180.75" thickBot="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3167,22 +4317,22 @@
         <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="225.75" thickBot="1">
+    <row r="35" spans="1:11" ht="180.75" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3194,22 +4344,22 @@
         <v>10</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="270.75" thickBot="1">
+    <row r="36" spans="1:11" ht="225.75" thickBot="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3221,22 +4371,22 @@
         <v>10</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="270.75" thickBot="1">
+    <row r="37" spans="1:11" ht="180.75" thickBot="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3248,22 +4398,266 @@
         <v>10</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
+    <row r="38" spans="1:11" ht="248.25" thickBot="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="237" thickBot="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="135.75" thickBot="1">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="192" thickBot="1">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" ht="192" thickBot="1">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" ht="248.25" thickBot="1">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3383,11 +4777,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="F1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="7" width="9.140625" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Keycapture_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -221,15 +221,6 @@
   </si>
   <si>
     <t>call remap key after captureKey and callback to fire with both key</t>
-  </si>
-  <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-ChangeConfigxml(Configuration/DeviceKeys,FunctionKeysCapturable,&lt;FunctionKeysCapturable value="1"/&gt;);
-PushConfigxml;</t>
   </si>
   <si>
     <t>wait(5);
@@ -385,24 +376,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-001
-};
-validate4
-{
-validate_PageTitle=Manual specs
-};</t>
-  </si>
-  <si>
     <t>Set HomeKey Value to Disabled</t>
   </si>
   <si>
@@ -418,24 +391,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-002
-};
-validate4
-{
-validate_PageTitle=Keycapture JS Test
-};</t>
-  </si>
-  <si>
     <t>Set HomeKey Value to UpArrow</t>
   </si>
   <si>
@@ -451,24 +406,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-003
-};
-validate4
-{
-validate_PageTitle=Manual specs
-};</t>
-  </si>
-  <si>
     <t>Set HomeKey Value to numeric Key 1</t>
   </si>
   <si>
@@ -484,24 +421,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-004
-};
-validate4
-{
-validate_PageTitle=Manual specs
-};</t>
-  </si>
-  <si>
     <t>Set HomeKey Value to Alphabet Key C (caps)</t>
   </si>
   <si>
@@ -517,24 +436,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-005
-};
-validate4
-{
-validate_PageTitle=Manual specs
-};</t>
-  </si>
-  <si>
     <t>Set HomeKey Value to Alphabet Key a</t>
   </si>
   <si>
@@ -550,24 +451,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-006
-};
-validate4
-{
-validate_PageTitle=Manual specs
-};</t>
-  </si>
-  <si>
     <t>Set HomeKey Value to null</t>
   </si>
   <si>
@@ -581,24 +464,6 @@
 sendKeyEvents(Enter);
 wait(3);
 validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-008
-};
-validate4
-{
-validate_PageTitle=Keycapture JS Test
-};</t>
   </si>
   <si>
     <t>Set HomeKey Value to 1 and then 2</t>
@@ -617,28 +482,6 @@
 sendKeyEvents(2);
 wait(3);
 validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-009
-};
-validate4
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate5
-{
-validate_PageTitle=Manual specs
-};</t>
   </si>
   <si>
     <t>Call Capture Key after setting homeKey value</t>
@@ -2929,6 +2772,172 @@
     <t>Keyvalue 8
 Remap:9
 (Remap Enter to 1) with windows key=1</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-009
+};
+validate4
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate5
+{
+validate_PageTitle=Manual specs
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-008
+};
+validate4
+{
+validate_PageTitle=Keycapture_HK JS Test
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-006
+};
+validate4
+{
+validate_PageTitle=Manual specs
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-005
+};
+validate4
+{
+validate_PageTitle=Manual specs
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-004
+};
+validate4
+{
+validate_PageTitle=Manual specs
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-003
+};
+validate4
+{
+validate_PageTitle=Manual specs
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-002
+};
+validate4
+{
+validate_PageTitle=Keycapture JS Test
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture_HK JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-001
+};
+validate4
+{
+validate_PageTitle=Manual specs
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+ChangeConfigxml(Configuration/Applications/Application,isWindowsKey,&lt;isWindowsKey value="0"/&gt;);
+ChangeConfigxml(Configuration/DeviceKeys,FunctionKeysCapturable,&lt;FunctionKeysCapturable value="1"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
+    <t>PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application,isWindowsKey,&lt;isWindowsKey value="1"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
+    <t>Change isWindowsKey  to 1</t>
   </si>
 </sst>
 </file>
@@ -3391,10 +3400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3441,7 +3450,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="294" thickBot="1">
+    <row r="2" spans="1:11" ht="332.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3461,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2"/>
@@ -3480,16 +3489,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -3507,16 +3516,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3534,16 +3543,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3561,16 +3570,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3588,16 +3597,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3621,10 +3630,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3642,16 +3651,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -3669,16 +3678,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -3702,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
@@ -3729,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -3756,10 +3765,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3777,16 +3786,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -3804,16 +3813,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3831,16 +3840,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3864,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3918,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>24</v>
@@ -3993,16 +4002,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -4020,16 +4029,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4047,16 +4056,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -4074,16 +4083,16 @@
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -4107,10 +4116,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -4134,10 +4143,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -4155,16 +4164,16 @@
         <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -4178,20 +4187,18 @@
         <v>1</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -4205,20 +4212,18 @@
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -4232,20 +4237,18 @@
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -4259,20 +4262,18 @@
         <v>1</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -4286,20 +4287,18 @@
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4313,20 +4312,18 @@
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4340,20 +4337,18 @@
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4367,20 +4362,18 @@
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4394,20 +4387,18 @@
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -4421,20 +4412,18 @@
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -4448,26 +4437,24 @@
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:11" ht="57" thickBot="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4479,17 +4466,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4506,16 +4489,16 @@
         <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4533,22 +4516,22 @@
         <v>10</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="135.75" thickBot="1">
+    <row r="43" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4559,23 +4542,23 @@
       <c r="D43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="192" thickBot="1">
+    <row r="44" spans="1:11" ht="135.75" thickBot="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4583,20 +4566,18 @@
         <v>1</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -4614,22 +4595,22 @@
         <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="248.25" thickBot="1">
+    <row r="46" spans="1:11" ht="192" thickBot="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4641,20 +4622,47 @@
         <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="248.25" thickBot="1">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K39"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Keycapture_JS.xlsx
@@ -1560,25 +1560,6 @@
 validate4
 {
 validate_textBoxData=keytxtInput_id,1
-validate_keyCaptured=8
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Keycapture JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT289-011
-};
-validate4
-{
-validate_textBoxData=keytxtInput_id,null
 validate_keyCaptured=8
 };</t>
   </si>
@@ -2938,6 +2919,25 @@
   </si>
   <si>
     <t>Change isWindowsKey  to 1</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Keycapture JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT289-012
+};
+validate4
+{
+validate_textBoxData=keytxtInput_id,null
+validate_keyCaptured=8
+};</t>
   </si>
 </sst>
 </file>
@@ -3402,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2"/>
@@ -3525,7 +3525,7 @@
         <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3579,7 +3579,7 @@
         <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3606,7 +3606,7 @@
         <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3633,7 +3633,7 @@
         <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3660,7 +3660,7 @@
         <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -3687,7 +3687,7 @@
         <v>82</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -3846,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3876,7 +3876,7 @@
         <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -4011,7 +4011,7 @@
         <v>92</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -4038,7 +4038,7 @@
         <v>94</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4065,7 +4065,7 @@
         <v>84</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -4092,7 +4092,7 @@
         <v>85</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -4119,7 +4119,7 @@
         <v>86</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -4146,7 +4146,7 @@
         <v>87</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -4173,7 +4173,7 @@
         <v>88</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -4198,7 +4198,7 @@
         <v>43</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -4223,7 +4223,7 @@
         <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -4248,7 +4248,7 @@
         <v>47</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -4273,7 +4273,7 @@
         <v>49</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -4298,7 +4298,7 @@
         <v>51</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4323,7 +4323,7 @@
         <v>53</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4348,7 +4348,7 @@
         <v>55</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4373,7 +4373,7 @@
         <v>57</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4395,10 +4395,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -4423,7 +4423,7 @@
         <v>76</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>89</v>
@@ -4466,11 +4466,11 @@
         <v>10</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2"/>
@@ -4489,7 +4489,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -4498,7 +4498,7 @@
         <v>67</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4516,7 +4516,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -4525,7 +4525,7 @@
         <v>69</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -4543,16 +4543,16 @@
         <v>10</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -4568,16 +4568,16 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -4595,16 +4595,16 @@
         <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4622,16 +4622,16 @@
         <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -4649,16 +4649,16 @@
         <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
